--- a/data/UO1_TUO5.xlsx
+++ b/data/UO1_TUO5.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="9">
   <si>
     <t>WOMAN</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>26 Men</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -2159,10 +2162,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E166"/>
+  <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D167" sqref="D167"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3394,7 +3397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
         <v>1</v>
       </c>
@@ -3411,7 +3414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
         <v>1</v>
       </c>
@@ -3422,7 +3425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
         <v>1</v>
       </c>
@@ -3433,7 +3436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
         <v>1</v>
       </c>
@@ -3444,7 +3447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -3455,7 +3458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
         <v>1</v>
       </c>
@@ -3466,7 +3469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
@@ -3477,7 +3480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
         <v>1</v>
       </c>
@@ -3488,7 +3491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
@@ -3499,7 +3502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
         <v>1</v>
       </c>
@@ -3510,7 +3513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
         <v>1</v>
       </c>
@@ -3526,8 +3529,11 @@
       <c r="E107" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
         <v>1</v>
       </c>
@@ -3538,7 +3544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
         <v>1</v>
       </c>
@@ -3549,7 +3555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
@@ -3560,7 +3566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -3571,7 +3577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
         <v>1</v>
       </c>
